--- a/Bases_de_Dados_(2022-2024)/Denmark 1st Division_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Denmark 1st Division_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="87">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -203,12 +203,87 @@
   </si>
   <si>
     <t>Nº</t>
+  </si>
+  <si>
+    <t>Denmark 1st Division</t>
+  </si>
+  <si>
+    <t>2023/2024</t>
+  </si>
+  <si>
+    <t>Hillerød</t>
+  </si>
+  <si>
+    <t>Vendsyssel</t>
+  </si>
+  <si>
+    <t>B 93</t>
+  </si>
+  <si>
+    <t>Fredericia</t>
+  </si>
+  <si>
+    <t>FC Helsingør</t>
+  </si>
+  <si>
+    <t>Kolding IF</t>
+  </si>
+  <si>
+    <t>HB Køge</t>
+  </si>
+  <si>
+    <t>SønderjyskE</t>
+  </si>
+  <si>
+    <t>AaB</t>
+  </si>
+  <si>
+    <t>Hobro</t>
+  </si>
+  <si>
+    <t>Næstved</t>
+  </si>
+  <si>
+    <t>Horsens</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['24']</t>
+  </si>
+  <si>
+    <t>['8', '21']</t>
+  </si>
+  <si>
+    <t>['54', '75']</t>
+  </si>
+  <si>
+    <t>['27', '64', '68', '78']</t>
+  </si>
+  <si>
+    <t>['50']</t>
+  </si>
+  <si>
+    <t>['59', '60', '90+3']</t>
+  </si>
+  <si>
+    <t>['23', '66']</t>
+  </si>
+  <si>
+    <t>['84']</t>
+  </si>
+  <si>
+    <t>['33']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -261,11 +336,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,7 +636,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK1"/>
+  <dimension ref="A1:BK7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -757,6 +833,1152 @@
         <v>61</v>
       </c>
     </row>
+    <row r="2" spans="1:63">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>6528816</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="2">
+        <v>45128.58333333334</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>4</v>
+      </c>
+      <c r="N2">
+        <v>4</v>
+      </c>
+      <c r="O2" t="s">
+        <v>77</v>
+      </c>
+      <c r="P2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q2">
+        <v>2</v>
+      </c>
+      <c r="R2">
+        <v>5</v>
+      </c>
+      <c r="S2">
+        <v>7</v>
+      </c>
+      <c r="T2">
+        <v>3</v>
+      </c>
+      <c r="U2">
+        <v>2.25</v>
+      </c>
+      <c r="V2">
+        <v>3.4</v>
+      </c>
+      <c r="W2">
+        <v>1.33</v>
+      </c>
+      <c r="X2">
+        <v>3.25</v>
+      </c>
+      <c r="Y2">
+        <v>2.5</v>
+      </c>
+      <c r="Z2">
+        <v>1.5</v>
+      </c>
+      <c r="AA2">
+        <v>6.5</v>
+      </c>
+      <c r="AB2">
+        <v>1.11</v>
+      </c>
+      <c r="AC2">
+        <v>2.38</v>
+      </c>
+      <c r="AD2">
+        <v>3.6</v>
+      </c>
+      <c r="AE2">
+        <v>2.8</v>
+      </c>
+      <c r="AF2">
+        <v>1.03</v>
+      </c>
+      <c r="AG2">
+        <v>15.75</v>
+      </c>
+      <c r="AH2">
+        <v>1.2</v>
+      </c>
+      <c r="AI2">
+        <v>4.08</v>
+      </c>
+      <c r="AJ2">
+        <v>1.75</v>
+      </c>
+      <c r="AK2">
+        <v>2.05</v>
+      </c>
+      <c r="AL2">
+        <v>1.62</v>
+      </c>
+      <c r="AM2">
+        <v>2.2</v>
+      </c>
+      <c r="AN2">
+        <v>1.35</v>
+      </c>
+      <c r="AO2">
+        <v>1.25</v>
+      </c>
+      <c r="AP2">
+        <v>1.57</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>3</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>1.72</v>
+      </c>
+      <c r="AY2">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ2">
+        <v>2.52</v>
+      </c>
+      <c r="BA2">
+        <v>1.29</v>
+      </c>
+      <c r="BB2">
+        <v>1.64</v>
+      </c>
+      <c r="BC2">
+        <v>2.01</v>
+      </c>
+      <c r="BD2">
+        <v>2.58</v>
+      </c>
+      <c r="BE2">
+        <v>3.48</v>
+      </c>
+      <c r="BF2">
+        <v>2</v>
+      </c>
+      <c r="BG2">
+        <v>7</v>
+      </c>
+      <c r="BH2">
+        <v>2</v>
+      </c>
+      <c r="BI2">
+        <v>18</v>
+      </c>
+      <c r="BJ2">
+        <v>4</v>
+      </c>
+      <c r="BK2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:63">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>6528817</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45128.58333333334</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3" t="s">
+        <v>78</v>
+      </c>
+      <c r="P3" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>3</v>
+      </c>
+      <c r="T3">
+        <v>3.25</v>
+      </c>
+      <c r="U3">
+        <v>2.3</v>
+      </c>
+      <c r="V3">
+        <v>2.88</v>
+      </c>
+      <c r="W3">
+        <v>1.3</v>
+      </c>
+      <c r="X3">
+        <v>3.4</v>
+      </c>
+      <c r="Y3">
+        <v>2.38</v>
+      </c>
+      <c r="Z3">
+        <v>1.53</v>
+      </c>
+      <c r="AA3">
+        <v>5.5</v>
+      </c>
+      <c r="AB3">
+        <v>1.14</v>
+      </c>
+      <c r="AC3">
+        <v>2.9</v>
+      </c>
+      <c r="AD3">
+        <v>3.5</v>
+      </c>
+      <c r="AE3">
+        <v>2.3</v>
+      </c>
+      <c r="AF3">
+        <v>1.02</v>
+      </c>
+      <c r="AG3">
+        <v>18.5</v>
+      </c>
+      <c r="AH3">
+        <v>1.17</v>
+      </c>
+      <c r="AI3">
+        <v>4.42</v>
+      </c>
+      <c r="AJ3">
+        <v>1.65</v>
+      </c>
+      <c r="AK3">
+        <v>2.2</v>
+      </c>
+      <c r="AL3">
+        <v>1.53</v>
+      </c>
+      <c r="AM3">
+        <v>2.38</v>
+      </c>
+      <c r="AN3">
+        <v>1.49</v>
+      </c>
+      <c r="AO3">
+        <v>1.24</v>
+      </c>
+      <c r="AP3">
+        <v>1.43</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>1</v>
+      </c>
+      <c r="AT3">
+        <v>1</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>1.93</v>
+      </c>
+      <c r="AY3">
+        <v>9.1</v>
+      </c>
+      <c r="AZ3">
+        <v>2.15</v>
+      </c>
+      <c r="BA3">
+        <v>1.2</v>
+      </c>
+      <c r="BB3">
+        <v>1.36</v>
+      </c>
+      <c r="BC3">
+        <v>2.1</v>
+      </c>
+      <c r="BD3">
+        <v>2.11</v>
+      </c>
+      <c r="BE3">
+        <v>2.72</v>
+      </c>
+      <c r="BF3">
+        <v>2</v>
+      </c>
+      <c r="BG3">
+        <v>4</v>
+      </c>
+      <c r="BH3">
+        <v>6</v>
+      </c>
+      <c r="BI3">
+        <v>7</v>
+      </c>
+      <c r="BJ3">
+        <v>8</v>
+      </c>
+      <c r="BK3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:63">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>6528818</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45129.375</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4" t="s">
+        <v>77</v>
+      </c>
+      <c r="P4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
+      </c>
+      <c r="R4">
+        <v>8</v>
+      </c>
+      <c r="S4">
+        <v>10</v>
+      </c>
+      <c r="T4">
+        <v>6.5</v>
+      </c>
+      <c r="U4">
+        <v>2.5</v>
+      </c>
+      <c r="V4">
+        <v>1.91</v>
+      </c>
+      <c r="W4">
+        <v>1.29</v>
+      </c>
+      <c r="X4">
+        <v>3.5</v>
+      </c>
+      <c r="Y4">
+        <v>2.25</v>
+      </c>
+      <c r="Z4">
+        <v>1.57</v>
+      </c>
+      <c r="AA4">
+        <v>5.5</v>
+      </c>
+      <c r="AB4">
+        <v>1.14</v>
+      </c>
+      <c r="AC4">
+        <v>7</v>
+      </c>
+      <c r="AD4">
+        <v>5</v>
+      </c>
+      <c r="AE4">
+        <v>1.44</v>
+      </c>
+      <c r="AF4">
+        <v>1.02</v>
+      </c>
+      <c r="AG4">
+        <v>12</v>
+      </c>
+      <c r="AH4">
+        <v>1.17</v>
+      </c>
+      <c r="AI4">
+        <v>5</v>
+      </c>
+      <c r="AJ4">
+        <v>1.6</v>
+      </c>
+      <c r="AK4">
+        <v>2.3</v>
+      </c>
+      <c r="AL4">
+        <v>1.8</v>
+      </c>
+      <c r="AM4">
+        <v>1.91</v>
+      </c>
+      <c r="AN4">
+        <v>2.45</v>
+      </c>
+      <c r="AO4">
+        <v>1.16</v>
+      </c>
+      <c r="AP4">
+        <v>1.16</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>3</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>3.45</v>
+      </c>
+      <c r="AY4">
+        <v>9.6</v>
+      </c>
+      <c r="AZ4">
+        <v>1.43</v>
+      </c>
+      <c r="BA4">
+        <v>1.28</v>
+      </c>
+      <c r="BB4">
+        <v>1.61</v>
+      </c>
+      <c r="BC4">
+        <v>1.96</v>
+      </c>
+      <c r="BD4">
+        <v>2.46</v>
+      </c>
+      <c r="BE4">
+        <v>3.34</v>
+      </c>
+      <c r="BF4">
+        <v>4</v>
+      </c>
+      <c r="BG4">
+        <v>8</v>
+      </c>
+      <c r="BH4">
+        <v>7</v>
+      </c>
+      <c r="BI4">
+        <v>12</v>
+      </c>
+      <c r="BJ4">
+        <v>11</v>
+      </c>
+      <c r="BK4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:63">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>6528819</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="2">
+        <v>45130.375</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q5">
+        <v>7</v>
+      </c>
+      <c r="R5">
+        <v>4</v>
+      </c>
+      <c r="S5">
+        <v>11</v>
+      </c>
+      <c r="T5">
+        <v>2.5</v>
+      </c>
+      <c r="U5">
+        <v>2.3</v>
+      </c>
+      <c r="V5">
+        <v>4</v>
+      </c>
+      <c r="W5">
+        <v>1.33</v>
+      </c>
+      <c r="X5">
+        <v>3.25</v>
+      </c>
+      <c r="Y5">
+        <v>2.5</v>
+      </c>
+      <c r="Z5">
+        <v>1.5</v>
+      </c>
+      <c r="AA5">
+        <v>6</v>
+      </c>
+      <c r="AB5">
+        <v>1.13</v>
+      </c>
+      <c r="AC5">
+        <v>1.91</v>
+      </c>
+      <c r="AD5">
+        <v>3.6</v>
+      </c>
+      <c r="AE5">
+        <v>4</v>
+      </c>
+      <c r="AF5">
+        <v>1.01</v>
+      </c>
+      <c r="AG5">
+        <v>14.5</v>
+      </c>
+      <c r="AH5">
+        <v>1.23</v>
+      </c>
+      <c r="AI5">
+        <v>4.2</v>
+      </c>
+      <c r="AJ5">
+        <v>1.73</v>
+      </c>
+      <c r="AK5">
+        <v>2.08</v>
+      </c>
+      <c r="AL5">
+        <v>1.62</v>
+      </c>
+      <c r="AM5">
+        <v>2.2</v>
+      </c>
+      <c r="AN5">
+        <v>1.28</v>
+      </c>
+      <c r="AO5">
+        <v>1.28</v>
+      </c>
+      <c r="AP5">
+        <v>1.75</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>3</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>1.67</v>
+      </c>
+      <c r="AY5">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ5">
+        <v>2.66</v>
+      </c>
+      <c r="BA5">
+        <v>1.19</v>
+      </c>
+      <c r="BB5">
+        <v>1.39</v>
+      </c>
+      <c r="BC5">
+        <v>2.25</v>
+      </c>
+      <c r="BD5">
+        <v>2.12</v>
+      </c>
+      <c r="BE5">
+        <v>2.75</v>
+      </c>
+      <c r="BF5">
+        <v>6</v>
+      </c>
+      <c r="BG5">
+        <v>2</v>
+      </c>
+      <c r="BH5">
+        <v>7</v>
+      </c>
+      <c r="BI5">
+        <v>5</v>
+      </c>
+      <c r="BJ5">
+        <v>13</v>
+      </c>
+      <c r="BK5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:63">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>6528820</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="2">
+        <v>45130.375</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>3</v>
+      </c>
+      <c r="O6" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q6">
+        <v>11</v>
+      </c>
+      <c r="R6">
+        <v>5</v>
+      </c>
+      <c r="S6">
+        <v>16</v>
+      </c>
+      <c r="T6">
+        <v>3.2</v>
+      </c>
+      <c r="U6">
+        <v>2.3</v>
+      </c>
+      <c r="V6">
+        <v>3.1</v>
+      </c>
+      <c r="W6">
+        <v>1.33</v>
+      </c>
+      <c r="X6">
+        <v>3.25</v>
+      </c>
+      <c r="Y6">
+        <v>2.5</v>
+      </c>
+      <c r="Z6">
+        <v>1.5</v>
+      </c>
+      <c r="AA6">
+        <v>6.5</v>
+      </c>
+      <c r="AB6">
+        <v>1.11</v>
+      </c>
+      <c r="AC6">
+        <v>2.63</v>
+      </c>
+      <c r="AD6">
+        <v>3.5</v>
+      </c>
+      <c r="AE6">
+        <v>2.55</v>
+      </c>
+      <c r="AF6">
+        <v>1.03</v>
+      </c>
+      <c r="AG6">
+        <v>14.75</v>
+      </c>
+      <c r="AH6">
+        <v>1.2</v>
+      </c>
+      <c r="AI6">
+        <v>4</v>
+      </c>
+      <c r="AJ6">
+        <v>1.7</v>
+      </c>
+      <c r="AK6">
+        <v>2.1</v>
+      </c>
+      <c r="AL6">
+        <v>1.57</v>
+      </c>
+      <c r="AM6">
+        <v>2.25</v>
+      </c>
+      <c r="AN6">
+        <v>1.32</v>
+      </c>
+      <c r="AO6">
+        <v>1.28</v>
+      </c>
+      <c r="AP6">
+        <v>1.65</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>3</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>1.8</v>
+      </c>
+      <c r="AY6">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ6">
+        <v>2.42</v>
+      </c>
+      <c r="BA6">
+        <v>1.22</v>
+      </c>
+      <c r="BB6">
+        <v>1.44</v>
+      </c>
+      <c r="BC6">
+        <v>1.79</v>
+      </c>
+      <c r="BD6">
+        <v>2.25</v>
+      </c>
+      <c r="BE6">
+        <v>2.98</v>
+      </c>
+      <c r="BF6">
+        <v>9</v>
+      </c>
+      <c r="BG6">
+        <v>6</v>
+      </c>
+      <c r="BH6">
+        <v>15</v>
+      </c>
+      <c r="BI6">
+        <v>9</v>
+      </c>
+      <c r="BJ6">
+        <v>24</v>
+      </c>
+      <c r="BK6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:63">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6528821</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45130.375</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q7">
+        <v>6</v>
+      </c>
+      <c r="R7">
+        <v>6</v>
+      </c>
+      <c r="S7">
+        <v>12</v>
+      </c>
+      <c r="T7">
+        <v>3.5</v>
+      </c>
+      <c r="U7">
+        <v>2.2</v>
+      </c>
+      <c r="V7">
+        <v>3</v>
+      </c>
+      <c r="W7">
+        <v>1.36</v>
+      </c>
+      <c r="X7">
+        <v>3</v>
+      </c>
+      <c r="Y7">
+        <v>2.63</v>
+      </c>
+      <c r="Z7">
+        <v>1.44</v>
+      </c>
+      <c r="AA7">
+        <v>7</v>
+      </c>
+      <c r="AB7">
+        <v>1.1</v>
+      </c>
+      <c r="AC7">
+        <v>3</v>
+      </c>
+      <c r="AD7">
+        <v>3.4</v>
+      </c>
+      <c r="AE7">
+        <v>2.4</v>
+      </c>
+      <c r="AF7">
+        <v>1.03</v>
+      </c>
+      <c r="AG7">
+        <v>12.5</v>
+      </c>
+      <c r="AH7">
+        <v>1.27</v>
+      </c>
+      <c r="AI7">
+        <v>3.8</v>
+      </c>
+      <c r="AJ7">
+        <v>1.95</v>
+      </c>
+      <c r="AK7">
+        <v>1.85</v>
+      </c>
+      <c r="AL7">
+        <v>1.67</v>
+      </c>
+      <c r="AM7">
+        <v>2.1</v>
+      </c>
+      <c r="AN7">
+        <v>1.65</v>
+      </c>
+      <c r="AO7">
+        <v>1.25</v>
+      </c>
+      <c r="AP7">
+        <v>1.4</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>3</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>2.25</v>
+      </c>
+      <c r="AY7">
+        <v>7.8</v>
+      </c>
+      <c r="AZ7">
+        <v>1.9</v>
+      </c>
+      <c r="BA7">
+        <v>1.24</v>
+      </c>
+      <c r="BB7">
+        <v>1.53</v>
+      </c>
+      <c r="BC7">
+        <v>2.38</v>
+      </c>
+      <c r="BD7">
+        <v>2.28</v>
+      </c>
+      <c r="BE7">
+        <v>3.14</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>3</v>
+      </c>
+      <c r="BH7">
+        <v>3</v>
+      </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
+        <v>3</v>
+      </c>
+      <c r="BK7">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bases_de_Dados_(2022-2024)/Denmark 1st Division_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Denmark 1st Division_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="97">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -232,15 +232,15 @@
     <t>HB Køge</t>
   </si>
   <si>
+    <t>Hobro</t>
+  </si>
+  <si>
     <t>SønderjyskE</t>
   </si>
   <si>
     <t>AaB</t>
   </si>
   <si>
-    <t>Hobro</t>
-  </si>
-  <si>
     <t>Næstved</t>
   </si>
   <si>
@@ -259,6 +259,24 @@
     <t>['54', '75']</t>
   </si>
   <si>
+    <t>['58', '74', '84']</t>
+  </si>
+  <si>
+    <t>['59', '85', '90+4']</t>
+  </si>
+  <si>
+    <t>['78']</t>
+  </si>
+  <si>
+    <t>['88']</t>
+  </si>
+  <si>
+    <t>['45+4', '45+6']</t>
+  </si>
+  <si>
+    <t>['47', '74']</t>
+  </si>
+  <si>
     <t>['27', '64', '68', '78']</t>
   </si>
   <si>
@@ -275,6 +293,18 @@
   </si>
   <si>
     <t>['33']</t>
+  </si>
+  <si>
+    <t>['2']</t>
+  </si>
+  <si>
+    <t>['28', '50']</t>
+  </si>
+  <si>
+    <t>['65', '80', '90+3']</t>
+  </si>
+  <si>
+    <t>['35']</t>
   </si>
 </sst>
 </file>
@@ -636,7 +666,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK7"/>
+  <dimension ref="A1:BK13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -880,7 +910,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1047,7 +1077,7 @@
         <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1071,7 +1101,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="Q3">
         <v>2</v>
@@ -1238,7 +1268,7 @@
         <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1262,7 +1292,7 @@
         <v>77</v>
       </c>
       <c r="P4" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -1429,7 +1459,7 @@
         <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1453,7 +1483,7 @@
         <v>77</v>
       </c>
       <c r="P5" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="Q5">
         <v>7</v>
@@ -1644,7 +1674,7 @@
         <v>79</v>
       </c>
       <c r="P6" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="Q6">
         <v>11</v>
@@ -1835,7 +1865,7 @@
         <v>80</v>
       </c>
       <c r="P7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -1977,6 +2007,1152 @@
       </c>
       <c r="BK7">
         <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:63">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>6528822</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="2">
+        <v>45135.58333333334</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>4</v>
+      </c>
+      <c r="O8" t="s">
+        <v>81</v>
+      </c>
+      <c r="P8" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>3</v>
+      </c>
+      <c r="S8">
+        <v>4</v>
+      </c>
+      <c r="T8">
+        <v>3.25</v>
+      </c>
+      <c r="U8">
+        <v>2.38</v>
+      </c>
+      <c r="V8">
+        <v>2.88</v>
+      </c>
+      <c r="W8">
+        <v>1.28</v>
+      </c>
+      <c r="X8">
+        <v>3.48</v>
+      </c>
+      <c r="Y8">
+        <v>2.36</v>
+      </c>
+      <c r="Z8">
+        <v>1.6</v>
+      </c>
+      <c r="AA8">
+        <v>5.15</v>
+      </c>
+      <c r="AB8">
+        <v>1.14</v>
+      </c>
+      <c r="AC8">
+        <v>2.9</v>
+      </c>
+      <c r="AD8">
+        <v>3.6</v>
+      </c>
+      <c r="AE8">
+        <v>2.3</v>
+      </c>
+      <c r="AF8">
+        <v>1.02</v>
+      </c>
+      <c r="AG8">
+        <v>17.5</v>
+      </c>
+      <c r="AH8">
+        <v>1.17</v>
+      </c>
+      <c r="AI8">
+        <v>4.42</v>
+      </c>
+      <c r="AJ8">
+        <v>1.6</v>
+      </c>
+      <c r="AK8">
+        <v>2.3</v>
+      </c>
+      <c r="AL8">
+        <v>1.53</v>
+      </c>
+      <c r="AM8">
+        <v>2.38</v>
+      </c>
+      <c r="AN8">
+        <v>1.65</v>
+      </c>
+      <c r="AO8">
+        <v>1.26</v>
+      </c>
+      <c r="AP8">
+        <v>1.41</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>3</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>2.34</v>
+      </c>
+      <c r="AY8">
+        <v>8.6</v>
+      </c>
+      <c r="AZ8">
+        <v>1.82</v>
+      </c>
+      <c r="BA8">
+        <v>1.25</v>
+      </c>
+      <c r="BB8">
+        <v>1.55</v>
+      </c>
+      <c r="BC8">
+        <v>1.78</v>
+      </c>
+      <c r="BD8">
+        <v>2.34</v>
+      </c>
+      <c r="BE8">
+        <v>3.2</v>
+      </c>
+      <c r="BF8">
+        <v>3</v>
+      </c>
+      <c r="BG8">
+        <v>9</v>
+      </c>
+      <c r="BH8">
+        <v>10</v>
+      </c>
+      <c r="BI8">
+        <v>3</v>
+      </c>
+      <c r="BJ8">
+        <v>13</v>
+      </c>
+      <c r="BK8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:63">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>6528823</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="2">
+        <v>45135.58333333334</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>5</v>
+      </c>
+      <c r="O9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P9" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q9">
+        <v>2</v>
+      </c>
+      <c r="R9">
+        <v>2</v>
+      </c>
+      <c r="S9">
+        <v>4</v>
+      </c>
+      <c r="T9">
+        <v>3.1</v>
+      </c>
+      <c r="U9">
+        <v>2.2</v>
+      </c>
+      <c r="V9">
+        <v>3.4</v>
+      </c>
+      <c r="W9">
+        <v>1.4</v>
+      </c>
+      <c r="X9">
+        <v>2.75</v>
+      </c>
+      <c r="Y9">
+        <v>2.75</v>
+      </c>
+      <c r="Z9">
+        <v>1.4</v>
+      </c>
+      <c r="AA9">
+        <v>6.5</v>
+      </c>
+      <c r="AB9">
+        <v>1.1</v>
+      </c>
+      <c r="AC9">
+        <v>2.55</v>
+      </c>
+      <c r="AD9">
+        <v>3.3</v>
+      </c>
+      <c r="AE9">
+        <v>2.8</v>
+      </c>
+      <c r="AF9">
+        <v>1.06</v>
+      </c>
+      <c r="AG9">
+        <v>8</v>
+      </c>
+      <c r="AH9">
+        <v>1.3</v>
+      </c>
+      <c r="AI9">
+        <v>3.4</v>
+      </c>
+      <c r="AJ9">
+        <v>1.85</v>
+      </c>
+      <c r="AK9">
+        <v>1.95</v>
+      </c>
+      <c r="AL9">
+        <v>1.67</v>
+      </c>
+      <c r="AM9">
+        <v>2.1</v>
+      </c>
+      <c r="AN9">
+        <v>1.41</v>
+      </c>
+      <c r="AO9">
+        <v>1.31</v>
+      </c>
+      <c r="AP9">
+        <v>1.58</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>3</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>1.67</v>
+      </c>
+      <c r="AW9">
+        <v>1.67</v>
+      </c>
+      <c r="AX9">
+        <v>1.81</v>
+      </c>
+      <c r="AY9">
+        <v>9.1</v>
+      </c>
+      <c r="AZ9">
+        <v>2.32</v>
+      </c>
+      <c r="BA9">
+        <v>1.19</v>
+      </c>
+      <c r="BB9">
+        <v>1.4</v>
+      </c>
+      <c r="BC9">
+        <v>2.2</v>
+      </c>
+      <c r="BD9">
+        <v>2.12</v>
+      </c>
+      <c r="BE9">
+        <v>2.79</v>
+      </c>
+      <c r="BF9">
+        <v>7</v>
+      </c>
+      <c r="BG9">
+        <v>0</v>
+      </c>
+      <c r="BH9">
+        <v>10</v>
+      </c>
+      <c r="BI9">
+        <v>8</v>
+      </c>
+      <c r="BJ9">
+        <v>17</v>
+      </c>
+      <c r="BK9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:63">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>6528824</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="2">
+        <v>45135.58333333334</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10">
+        <v>4</v>
+      </c>
+      <c r="O10" t="s">
+        <v>83</v>
+      </c>
+      <c r="P10" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q10">
+        <v>9</v>
+      </c>
+      <c r="R10">
+        <v>3</v>
+      </c>
+      <c r="S10">
+        <v>12</v>
+      </c>
+      <c r="T10">
+        <v>2.25</v>
+      </c>
+      <c r="U10">
+        <v>2.5</v>
+      </c>
+      <c r="V10">
+        <v>4.33</v>
+      </c>
+      <c r="W10">
+        <v>1.29</v>
+      </c>
+      <c r="X10">
+        <v>3.5</v>
+      </c>
+      <c r="Y10">
+        <v>2.3</v>
+      </c>
+      <c r="Z10">
+        <v>1.57</v>
+      </c>
+      <c r="AA10">
+        <v>4.75</v>
+      </c>
+      <c r="AB10">
+        <v>1.15</v>
+      </c>
+      <c r="AC10">
+        <v>1.7</v>
+      </c>
+      <c r="AD10">
+        <v>4</v>
+      </c>
+      <c r="AE10">
+        <v>4.5</v>
+      </c>
+      <c r="AF10">
+        <v>1.03</v>
+      </c>
+      <c r="AG10">
+        <v>11</v>
+      </c>
+      <c r="AH10">
+        <v>1.17</v>
+      </c>
+      <c r="AI10">
+        <v>4.5</v>
+      </c>
+      <c r="AJ10">
+        <v>1.53</v>
+      </c>
+      <c r="AK10">
+        <v>2.4</v>
+      </c>
+      <c r="AL10">
+        <v>1.57</v>
+      </c>
+      <c r="AM10">
+        <v>2.25</v>
+      </c>
+      <c r="AN10">
+        <v>1.17</v>
+      </c>
+      <c r="AO10">
+        <v>1.21</v>
+      </c>
+      <c r="AP10">
+        <v>2.32</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>3</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>1.46</v>
+      </c>
+      <c r="AY10">
+        <v>10.25</v>
+      </c>
+      <c r="AZ10">
+        <v>3.22</v>
+      </c>
+      <c r="BA10">
+        <v>1.16</v>
+      </c>
+      <c r="BB10">
+        <v>1.29</v>
+      </c>
+      <c r="BC10">
+        <v>1.55</v>
+      </c>
+      <c r="BD10">
+        <v>1.94</v>
+      </c>
+      <c r="BE10">
+        <v>2.38</v>
+      </c>
+      <c r="BF10">
+        <v>5</v>
+      </c>
+      <c r="BG10">
+        <v>4</v>
+      </c>
+      <c r="BH10">
+        <v>18</v>
+      </c>
+      <c r="BI10">
+        <v>4</v>
+      </c>
+      <c r="BJ10">
+        <v>23</v>
+      </c>
+      <c r="BK10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:63">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>6528825</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45136.375</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11" t="s">
+        <v>84</v>
+      </c>
+      <c r="P11" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q11">
+        <v>5</v>
+      </c>
+      <c r="R11">
+        <v>5</v>
+      </c>
+      <c r="S11">
+        <v>10</v>
+      </c>
+      <c r="T11">
+        <v>2.1</v>
+      </c>
+      <c r="U11">
+        <v>2.4</v>
+      </c>
+      <c r="V11">
+        <v>5</v>
+      </c>
+      <c r="W11">
+        <v>1.33</v>
+      </c>
+      <c r="X11">
+        <v>3.25</v>
+      </c>
+      <c r="Y11">
+        <v>2.38</v>
+      </c>
+      <c r="Z11">
+        <v>1.53</v>
+      </c>
+      <c r="AA11">
+        <v>5.5</v>
+      </c>
+      <c r="AB11">
+        <v>1.12</v>
+      </c>
+      <c r="AC11">
+        <v>1.6</v>
+      </c>
+      <c r="AD11">
+        <v>4.33</v>
+      </c>
+      <c r="AE11">
+        <v>5</v>
+      </c>
+      <c r="AF11">
+        <v>1.03</v>
+      </c>
+      <c r="AG11">
+        <v>11</v>
+      </c>
+      <c r="AH11">
+        <v>1.2</v>
+      </c>
+      <c r="AI11">
+        <v>4.33</v>
+      </c>
+      <c r="AJ11">
+        <v>1.62</v>
+      </c>
+      <c r="AK11">
+        <v>2.25</v>
+      </c>
+      <c r="AL11">
+        <v>1.73</v>
+      </c>
+      <c r="AM11">
+        <v>2</v>
+      </c>
+      <c r="AN11">
+        <v>1.16</v>
+      </c>
+      <c r="AO11">
+        <v>1.22</v>
+      </c>
+      <c r="AP11">
+        <v>2.34</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>3</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0.46</v>
+      </c>
+      <c r="AW11">
+        <v>0.46</v>
+      </c>
+      <c r="AX11">
+        <v>1.27</v>
+      </c>
+      <c r="AY11">
+        <v>7.25</v>
+      </c>
+      <c r="AZ11">
+        <v>4.8</v>
+      </c>
+      <c r="BA11">
+        <v>1.15</v>
+      </c>
+      <c r="BB11">
+        <v>1.27</v>
+      </c>
+      <c r="BC11">
+        <v>1.55</v>
+      </c>
+      <c r="BD11">
+        <v>1.95</v>
+      </c>
+      <c r="BE11">
+        <v>2.32</v>
+      </c>
+      <c r="BF11">
+        <v>11</v>
+      </c>
+      <c r="BG11">
+        <v>5</v>
+      </c>
+      <c r="BH11">
+        <v>12</v>
+      </c>
+      <c r="BI11">
+        <v>6</v>
+      </c>
+      <c r="BJ11">
+        <v>23</v>
+      </c>
+      <c r="BK11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:63">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>6528826</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="2">
+        <v>45136.375</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
+      </c>
+      <c r="O12" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q12">
+        <v>10</v>
+      </c>
+      <c r="R12">
+        <v>4</v>
+      </c>
+      <c r="S12">
+        <v>14</v>
+      </c>
+      <c r="T12">
+        <v>2.1</v>
+      </c>
+      <c r="U12">
+        <v>2.38</v>
+      </c>
+      <c r="V12">
+        <v>5.5</v>
+      </c>
+      <c r="W12">
+        <v>1.33</v>
+      </c>
+      <c r="X12">
+        <v>3.25</v>
+      </c>
+      <c r="Y12">
+        <v>2.5</v>
+      </c>
+      <c r="Z12">
+        <v>1.5</v>
+      </c>
+      <c r="AA12">
+        <v>6</v>
+      </c>
+      <c r="AB12">
+        <v>1.11</v>
+      </c>
+      <c r="AC12">
+        <v>1.53</v>
+      </c>
+      <c r="AD12">
+        <v>4.2</v>
+      </c>
+      <c r="AE12">
+        <v>5.75</v>
+      </c>
+      <c r="AF12">
+        <v>1.04</v>
+      </c>
+      <c r="AG12">
+        <v>10</v>
+      </c>
+      <c r="AH12">
+        <v>1.25</v>
+      </c>
+      <c r="AI12">
+        <v>3.75</v>
+      </c>
+      <c r="AJ12">
+        <v>1.73</v>
+      </c>
+      <c r="AK12">
+        <v>2.08</v>
+      </c>
+      <c r="AL12">
+        <v>1.83</v>
+      </c>
+      <c r="AM12">
+        <v>1.83</v>
+      </c>
+      <c r="AN12">
+        <v>1.16</v>
+      </c>
+      <c r="AO12">
+        <v>1.23</v>
+      </c>
+      <c r="AP12">
+        <v>2.3</v>
+      </c>
+      <c r="AQ12">
+        <v>3</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>3</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>0.21</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>0.21</v>
+      </c>
+      <c r="AX12">
+        <v>1.42</v>
+      </c>
+      <c r="AY12">
+        <v>6.5</v>
+      </c>
+      <c r="AZ12">
+        <v>3.55</v>
+      </c>
+      <c r="BA12">
+        <v>1.62</v>
+      </c>
+      <c r="BB12">
+        <v>2.01</v>
+      </c>
+      <c r="BC12">
+        <v>1.78</v>
+      </c>
+      <c r="BD12">
+        <v>3.64</v>
+      </c>
+      <c r="BE12">
+        <v>5.2</v>
+      </c>
+      <c r="BF12">
+        <v>4</v>
+      </c>
+      <c r="BG12">
+        <v>4</v>
+      </c>
+      <c r="BH12">
+        <v>4</v>
+      </c>
+      <c r="BI12">
+        <v>3</v>
+      </c>
+      <c r="BJ12">
+        <v>8</v>
+      </c>
+      <c r="BK12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:63">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>6528827</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="2">
+        <v>45137.375</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13" t="s">
+        <v>86</v>
+      </c>
+      <c r="P13" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q13">
+        <v>2</v>
+      </c>
+      <c r="R13">
+        <v>6</v>
+      </c>
+      <c r="S13">
+        <v>8</v>
+      </c>
+      <c r="T13">
+        <v>2.5</v>
+      </c>
+      <c r="U13">
+        <v>2.38</v>
+      </c>
+      <c r="V13">
+        <v>3.75</v>
+      </c>
+      <c r="W13">
+        <v>1.33</v>
+      </c>
+      <c r="X13">
+        <v>3.25</v>
+      </c>
+      <c r="Y13">
+        <v>2.5</v>
+      </c>
+      <c r="Z13">
+        <v>1.5</v>
+      </c>
+      <c r="AA13">
+        <v>6</v>
+      </c>
+      <c r="AB13">
+        <v>1.13</v>
+      </c>
+      <c r="AC13">
+        <v>1.91</v>
+      </c>
+      <c r="AD13">
+        <v>3.8</v>
+      </c>
+      <c r="AE13">
+        <v>3.75</v>
+      </c>
+      <c r="AF13">
+        <v>1.04</v>
+      </c>
+      <c r="AG13">
+        <v>10</v>
+      </c>
+      <c r="AH13">
+        <v>1.25</v>
+      </c>
+      <c r="AI13">
+        <v>3.6</v>
+      </c>
+      <c r="AJ13">
+        <v>1.6</v>
+      </c>
+      <c r="AK13">
+        <v>2.3</v>
+      </c>
+      <c r="AL13">
+        <v>1.57</v>
+      </c>
+      <c r="AM13">
+        <v>2.25</v>
+      </c>
+      <c r="AN13">
+        <v>1.25</v>
+      </c>
+      <c r="AO13">
+        <v>1.25</v>
+      </c>
+      <c r="AP13">
+        <v>1.91</v>
+      </c>
+      <c r="AQ13">
+        <v>3</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>3</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>2.5</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>2.5</v>
+      </c>
+      <c r="AX13">
+        <v>1.66</v>
+      </c>
+      <c r="AY13">
+        <v>8.6</v>
+      </c>
+      <c r="AZ13">
+        <v>2.67</v>
+      </c>
+      <c r="BA13">
+        <v>1.48</v>
+      </c>
+      <c r="BB13">
+        <v>2</v>
+      </c>
+      <c r="BC13">
+        <v>1.85</v>
+      </c>
+      <c r="BD13">
+        <v>1.9</v>
+      </c>
+      <c r="BE13">
+        <v>4.7</v>
+      </c>
+      <c r="BF13">
+        <v>9</v>
+      </c>
+      <c r="BG13">
+        <v>3</v>
+      </c>
+      <c r="BH13">
+        <v>14</v>
+      </c>
+      <c r="BI13">
+        <v>10</v>
+      </c>
+      <c r="BJ13">
+        <v>23</v>
+      </c>
+      <c r="BK13">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
